--- a/data/trans_orig/P34A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Estudios-trans_orig.xlsx
@@ -551,7 +551,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre / solo 2023 en 2023 (tasa de respuesta: 99,76%)</t>
+          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P34A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>16709</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10094</v>
+        <v>10340</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25728</v>
+        <v>26248</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02908348215567451</v>
+        <v>0.0290834821556745</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01757036054676599</v>
+        <v>0.0179984707989731</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04478317203682608</v>
+        <v>0.04568775476783227</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -762,19 +762,19 @@
         <v>20512</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14528</v>
+        <v>14419</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28075</v>
+        <v>28273</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02511845007764082</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01779051188444368</v>
+        <v>0.01765782176894486</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03438066369258649</v>
+        <v>0.03462273849712449</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -783,19 +783,19 @@
         <v>37220</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28140</v>
+        <v>28724</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48596</v>
+        <v>49555</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02675595005847265</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02022895719752298</v>
+        <v>0.02064864009734969</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03493334104780283</v>
+        <v>0.03562316969020581</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>26727</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15991</v>
+        <v>16035</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42859</v>
+        <v>42047</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04652186304208413</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02783518747857993</v>
+        <v>0.02791041223968193</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07460106486942505</v>
+        <v>0.07318821053821441</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -833,19 +833,19 @@
         <v>13884</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9163</v>
+        <v>9275</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20103</v>
+        <v>20015</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01700276674366759</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01122055412418181</v>
+        <v>0.01135833249061682</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02461801454704276</v>
+        <v>0.0245100169675663</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>47</v>
@@ -854,19 +854,19 @@
         <v>40611</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30015</v>
+        <v>29115</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>62559</v>
+        <v>59501</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02919371972248974</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02157658239075812</v>
+        <v>0.02092947978651414</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04497107077595817</v>
+        <v>0.04277293721610816</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>234012</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>213137</v>
+        <v>212565</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>257300</v>
+        <v>256957</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4073289435449458</v>
+        <v>0.4073289435449459</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3709941755457</v>
+        <v>0.3699984474907599</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4478652916663644</v>
+        <v>0.4472690597540793</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>522</v>
@@ -904,19 +904,19 @@
         <v>288361</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>267845</v>
+        <v>267448</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>308466</v>
+        <v>309182</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3531257064793218</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3280023985797565</v>
+        <v>0.3275155023776545</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3777458762757448</v>
+        <v>0.3786228552085797</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>828</v>
@@ -925,19 +925,19 @@
         <v>522373</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>492637</v>
+        <v>494230</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>552686</v>
+        <v>555354</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3755108468537722</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.354135446895215</v>
+        <v>0.3552803211366393</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.397301717637364</v>
+        <v>0.3992193680148164</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>170324</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>149526</v>
+        <v>148747</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>193069</v>
+        <v>191960</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2964714939252917</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2602704842970076</v>
+        <v>0.2589148012941925</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3360626903243276</v>
+        <v>0.3341323869472811</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>540</v>
@@ -975,19 +975,19 @@
         <v>322543</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>301875</v>
+        <v>302679</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>344034</v>
+        <v>346104</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3949853535454508</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3696752222656506</v>
+        <v>0.3706594970589428</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.421302383930347</v>
+        <v>0.4238370810071792</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>738</v>
@@ -996,19 +996,19 @@
         <v>492867</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>464189</v>
+        <v>459793</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>526123</v>
+        <v>521830</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3543005772145417</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.333684834730105</v>
+        <v>0.3305247433028373</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3782066096191852</v>
+        <v>0.3751203769776981</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>126732</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>106272</v>
+        <v>106103</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>146191</v>
+        <v>146072</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2205942173320038</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1849813556617206</v>
+        <v>0.1846857613050358</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2544651463586212</v>
+        <v>0.2542584099914361</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>300</v>
@@ -1046,19 +1046,19 @@
         <v>171295</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>153870</v>
+        <v>152474</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>190879</v>
+        <v>190401</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2097677231539189</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.188428273392069</v>
+        <v>0.1867186847950933</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2337493339743242</v>
+        <v>0.2331638519924097</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>442</v>
@@ -1067,19 +1067,19 @@
         <v>298028</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>270474</v>
+        <v>273286</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>324512</v>
+        <v>325942</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2142389061507237</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1944320704693761</v>
+        <v>0.1964529792553767</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2332771579039465</v>
+        <v>0.2343053628426782</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>279733</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>244512</v>
+        <v>239757</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>323959</v>
+        <v>320432</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1256803777814809</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1098556997477837</v>
+        <v>0.1077197136569329</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.145550443447979</v>
+        <v>0.1439654808264825</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>177</v>
@@ -1192,19 +1192,19 @@
         <v>147846</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>127718</v>
+        <v>127411</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>172918</v>
+        <v>171191</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06818217513708463</v>
+        <v>0.06818217513708462</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05889986214018994</v>
+        <v>0.05875830047427281</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07974450536799498</v>
+        <v>0.07894820205623572</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>380</v>
@@ -1213,19 +1213,19 @@
         <v>427579</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>382009</v>
+        <v>387951</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>476156</v>
+        <v>474392</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09730655529920045</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08693588212511483</v>
+        <v>0.08828810276596764</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1083614672833815</v>
+        <v>0.1079599294568335</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>304992</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>267679</v>
+        <v>266431</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>351595</v>
+        <v>345774</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1370288554118958</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1202644864969367</v>
+        <v>0.1197039431655643</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1579669150408676</v>
+        <v>0.1553513039706851</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>151</v>
@@ -1263,19 +1263,19 @@
         <v>129837</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>109629</v>
+        <v>110460</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>154573</v>
+        <v>155818</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05987720689792463</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0505578204579823</v>
+        <v>0.05094087915788492</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07128435690757953</v>
+        <v>0.0718587279948706</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>371</v>
@@ -1284,19 +1284,19 @@
         <v>434830</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>389075</v>
+        <v>390660</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>486799</v>
+        <v>486739</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09895658395865826</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08854390713961631</v>
+        <v>0.08890468777562849</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1107834021080542</v>
+        <v>0.110769891971525</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>933168</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>880911</v>
+        <v>879473</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>985907</v>
+        <v>988353</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4192595168649327</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3957810635423661</v>
+        <v>0.3951349082141636</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.442954170791573</v>
+        <v>0.4440532324635521</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1528</v>
@@ -1334,19 +1334,19 @@
         <v>1075408</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1030772</v>
+        <v>1036076</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1123445</v>
+        <v>1122345</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.495946719886929</v>
+        <v>0.4959467198869288</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.475361722190518</v>
+        <v>0.4778080528922911</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5180999801831775</v>
+        <v>0.5175925702977522</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2435</v>
@@ -1355,19 +1355,19 @@
         <v>2008576</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1935800</v>
+        <v>1938754</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2074355</v>
+        <v>2076750</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.4571025969115537</v>
+        <v>0.4571025969115536</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4405404751538782</v>
+        <v>0.4412127358994768</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4720722800047112</v>
+        <v>0.4726173215166076</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>370472</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>332522</v>
+        <v>327434</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>411961</v>
+        <v>406243</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1664480270347824</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1493975809290934</v>
+        <v>0.1471114433901612</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1850885454303341</v>
+        <v>0.182519310661245</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>536</v>
@@ -1405,19 +1405,19 @@
         <v>400118</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>368405</v>
+        <v>364757</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>437060</v>
+        <v>431697</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1845229640525682</v>
+        <v>0.1845229640525681</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1698975670491192</v>
+        <v>0.1682154136139745</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2015593498939669</v>
+        <v>0.1990862653525882</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>889</v>
@@ -1426,19 +1426,19 @@
         <v>770591</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>716412</v>
+        <v>718549</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>821888</v>
+        <v>822264</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1753675241796386</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1630378644971058</v>
+        <v>0.1635242151230582</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.18704151208117</v>
+        <v>0.187127151107171</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>337387</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>302530</v>
+        <v>298959</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>379133</v>
+        <v>377807</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1515832229069083</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1359224824309278</v>
+        <v>0.1343181969569277</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1703393467991586</v>
+        <v>0.1697434494528553</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>525</v>
@@ -1476,19 +1476,19 @@
         <v>415184</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>379483</v>
+        <v>380471</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>452204</v>
+        <v>449350</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1914709340254938</v>
+        <v>0.1914709340254937</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1750065504251908</v>
+        <v>0.1754618896813988</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2085433796921283</v>
+        <v>0.2072272823989664</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>830</v>
@@ -1497,19 +1497,19 @@
         <v>752571</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>702465</v>
+        <v>700859</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>805003</v>
+        <v>806504</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1712667396509491</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1598637801627726</v>
+        <v>0.1594983941170062</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1831989596117231</v>
+        <v>0.183540478238795</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>131473</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>108622</v>
+        <v>109456</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>155998</v>
+        <v>155621</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1850537249095278</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1528901337520331</v>
+        <v>0.154063302098903</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2195733498346421</v>
+        <v>0.2190427342067273</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>118</v>
@@ -1622,19 +1622,19 @@
         <v>92377</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>76052</v>
+        <v>77501</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>108993</v>
+        <v>111427</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1257700847308545</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1035443736537799</v>
+        <v>0.1055174455954843</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1483924396194652</v>
+        <v>0.1517063721754863</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>228</v>
@@ -1643,19 +1643,19 @@
         <v>223850</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>197841</v>
+        <v>196128</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>254951</v>
+        <v>256041</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1549189244439776</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1369193229603133</v>
+        <v>0.1357334808943893</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1764430515767254</v>
+        <v>0.1771970514495239</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>114194</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>93487</v>
+        <v>94257</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>138510</v>
+        <v>138649</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1607324682694354</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1315873084461676</v>
+        <v>0.1326701008163158</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1949581291487358</v>
+        <v>0.1951539122679604</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>104</v>
@@ -1693,19 +1693,19 @@
         <v>89895</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>73955</v>
+        <v>73274</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>109014</v>
+        <v>107583</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1223912775460687</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1006885218440976</v>
+        <v>0.099761337848789</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1484210967920748</v>
+        <v>0.1464731624244487</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>200</v>
@@ -1714,19 +1714,19 @@
         <v>204089</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>177023</v>
+        <v>179280</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>234721</v>
+        <v>239314</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1412430420368691</v>
+        <v>0.141243042036869</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1225118016351055</v>
+        <v>0.124073951270811</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1624422698948635</v>
+        <v>0.1656209760615875</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>298129</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>270370</v>
+        <v>270346</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>322994</v>
+        <v>326262</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4196292118207244</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3805578693900443</v>
+        <v>0.3805231435483419</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4546274452997588</v>
+        <v>0.4592276413954074</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>520</v>
@@ -1764,19 +1764,19 @@
         <v>355821</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>331772</v>
+        <v>328996</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>382870</v>
+        <v>379440</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.4844475867758998</v>
+        <v>0.4844475867758997</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4517042089198645</v>
+        <v>0.4479255920594418</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5212740681518765</v>
+        <v>0.5166034553004697</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>838</v>
@@ -1785,19 +1785,19 @@
         <v>653951</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>616740</v>
+        <v>615499</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>691650</v>
+        <v>692121</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.452577404439944</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.426824992966195</v>
+        <v>0.4259662955913314</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4786678341601108</v>
+        <v>0.4789940416371527</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>107061</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>88105</v>
+        <v>88160</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>130923</v>
+        <v>128664</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1506926166477191</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1240121216885133</v>
+        <v>0.1240885388660874</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1842796200988615</v>
+        <v>0.1810998829973912</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>114</v>
@@ -1835,19 +1835,19 @@
         <v>84877</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>69360</v>
+        <v>69826</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>102929</v>
+        <v>102561</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1155594950776237</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09443307336320228</v>
+        <v>0.09506798724638484</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1401369903716929</v>
+        <v>0.13963618152194</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>215</v>
@@ -1856,19 +1856,19 @@
         <v>191938</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>166194</v>
+        <v>168915</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>218745</v>
+        <v>221813</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1328339020840407</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1150173413915729</v>
+        <v>0.1169004944561162</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1513861275652724</v>
+        <v>0.1535091426727455</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>59602</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>46665</v>
+        <v>46947</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>78588</v>
+        <v>79939</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08389197835259324</v>
+        <v>0.08389197835259325</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06568325428436832</v>
+        <v>0.06607993259880778</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1106158648714038</v>
+        <v>0.112517533423126</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>147</v>
@@ -1906,19 +1906,19 @@
         <v>111519</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>95363</v>
+        <v>94259</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>131432</v>
+        <v>130853</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1518315558695533</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1298358258191973</v>
+        <v>0.1283331934384687</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1789439618009185</v>
+        <v>0.1781558259686183</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>202</v>
@@ -1927,19 +1927,19 @@
         <v>171120</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>149175</v>
+        <v>147697</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>198913</v>
+        <v>195878</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1184267269951688</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1032388171619853</v>
+        <v>0.1022160190271796</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1376611297144384</v>
+        <v>0.1355605643153143</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>427915</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>385277</v>
+        <v>376923</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>474185</v>
+        <v>474854</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1218882807416227</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1097432065849408</v>
+        <v>0.1073637175383438</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1350679959727728</v>
+        <v>0.1352585928871928</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>329</v>
@@ -2052,19 +2052,19 @@
         <v>260734</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>233531</v>
+        <v>232220</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>290997</v>
+        <v>291613</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07009966558732252</v>
+        <v>0.0700996655873225</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06278581609654039</v>
+        <v>0.06243344648212016</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07823592249315488</v>
+        <v>0.07840169500854151</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>660</v>
@@ -2073,19 +2073,19 @@
         <v>688649</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>639496</v>
+        <v>637007</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>746061</v>
+        <v>746439</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.09524630299200051</v>
+        <v>0.0952463029920005</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08844792022128843</v>
+        <v>0.08810373099982972</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1031868895202546</v>
+        <v>0.1032391419079475</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>445913</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>401744</v>
+        <v>396456</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>499074</v>
+        <v>495997</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1270148959190833</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1144336986823758</v>
+        <v>0.1129274752721675</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.142157377034595</v>
+        <v>0.1412809736826512</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>279</v>
@@ -2123,19 +2123,19 @@
         <v>233617</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>203363</v>
+        <v>205403</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>263068</v>
+        <v>267950</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.06280902834860429</v>
+        <v>0.0628090283486043</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05467503993525875</v>
+        <v>0.05522361129022547</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07072724404204943</v>
+        <v>0.0720395257168558</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>618</v>
@@ -2144,19 +2144,19 @@
         <v>679530</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>621636</v>
+        <v>614063</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>732304</v>
+        <v>738298</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.09398502458324282</v>
+        <v>0.09398502458324286</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08597771561057212</v>
+        <v>0.084930331258734</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.101284094424357</v>
+        <v>0.1021131649830384</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>1465309</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1408198</v>
+        <v>1399883</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1533884</v>
+        <v>1530141</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4173819781207893</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4011143195802239</v>
+        <v>0.3987458690178885</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4369148577800354</v>
+        <v>0.435848854667407</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2570</v>
@@ -2194,19 +2194,19 @@
         <v>1719590</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1669166</v>
+        <v>1666394</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1776199</v>
+        <v>1774452</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4623202336174752</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4487633014341355</v>
+        <v>0.4480181038355613</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4775397216302533</v>
+        <v>0.4770700563026863</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4101</v>
@@ -2215,19 +2215,19 @@
         <v>3184900</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3100630</v>
+        <v>3101621</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3270267</v>
+        <v>3265766</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4404998776723113</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4288446248343191</v>
+        <v>0.4289817502678668</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4523069554049952</v>
+        <v>0.4516844261812029</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>647857</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>597596</v>
+        <v>601381</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>693137</v>
+        <v>700042</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.184537042262205</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1702206783189549</v>
+        <v>0.1712987427634992</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1974346813109966</v>
+        <v>0.1994016631871693</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1190</v>
@@ -2265,19 +2265,19 @@
         <v>807539</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>762916</v>
+        <v>762345</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>852782</v>
+        <v>849768</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2171107875125744</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.205113779261967</v>
+        <v>0.2049602372502696</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2292744767407414</v>
+        <v>0.228464245708456</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1842</v>
@@ -2286,19 +2286,19 @@
         <v>1455396</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1391645</v>
+        <v>1384809</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1517013</v>
+        <v>1515648</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2012941807490437</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1924768204250639</v>
+        <v>0.1915313063417697</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2098163667268471</v>
+        <v>0.2096275229929412</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>523721</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>477344</v>
+        <v>479545</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>571527</v>
+        <v>571364</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1491778029562996</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.135967750314944</v>
+        <v>0.1365945649902326</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1627950519844621</v>
+        <v>0.1627487223319642</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>972</v>
@@ -2336,19 +2336,19 @@
         <v>697998</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>655691</v>
+        <v>655117</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>738845</v>
+        <v>742263</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1876602849340236</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1762856110994659</v>
+        <v>0.1761313525148895</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1986419666826342</v>
+        <v>0.1995609848728851</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1474</v>
@@ -2357,19 +2357,19 @@
         <v>1221719</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1158265</v>
+        <v>1159300</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1283539</v>
+        <v>1287908</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1689746140034016</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1601983731652203</v>
+        <v>0.1603415238135902</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1775247849714681</v>
+        <v>0.1781290872016628</v>
       </c>
     </row>
     <row r="27">
